--- a/pcb/PCB-component-bestellingen.xlsx
+++ b/pcb/PCB-component-bestellingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vande\Documents\GitHub\IOT_Nox_Project\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8085316-C8F6-462A-A6C3-D45A2A49AB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE46B0-09A2-4D74-9DE6-A2C288773022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32586F18-824A-914D-9EC6-B2361D819E5D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{32586F18-824A-914D-9EC6-B2361D819E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Te bestellen " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Winkel</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>https://www.digikey.nl/en/products/detail/jst-sales-america-inc/B4B-ZR-SM4-TF/926590</t>
+  </si>
+  <si>
+    <t>DFRobot FireBeetle ESP32 IoT Microcontroller - Wi-Fi and Bluetooth - Separate Headers</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/en/development-boards/microcontroller-boards/with-wi-fi/dfrobot-firebeetle-esp32-iot-microcontroller-wi-fi-and-bluetooth-seperate-headers</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,6 +439,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,7 +760,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -759,7 +768,7 @@
     <col min="1" max="2" width="20.796875" customWidth="1"/>
     <col min="3" max="3" width="100.796875" customWidth="1"/>
     <col min="4" max="7" width="18.796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="78.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="146.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -815,14 +824,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15">
+        <v>4013</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>9.92</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9.92</v>
+      </c>
+      <c r="G3" s="14">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -855,6 +880,9 @@
       <c r="H6" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{4196B56F-C046-4624-87FC-E46799F99ABD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -864,7 +892,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1227,25 +1255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e93c1e37-f8f1-4329-b977-e0dbf1645a88">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B67B7BD33B5CBD4985C1FCB443C3C512" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="52beda2125fff3e7c6abfa46163a84e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e93c1e37-f8f1-4329-b977-e0dbf1645a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccd22dfc940d6aab2948306dd884c3e1" ns2:_="">
     <xsd:import namespace="e93c1e37-f8f1-4329-b977-e0dbf1645a88"/>
@@ -1423,25 +1432,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04543BEE-C836-4B28-93D5-D7BCFD0FE88F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e93c1e37-f8f1-4329-b977-e0dbf1645a88"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D6E9BA-B988-4E9A-B769-208707F9EA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e93c1e37-f8f1-4329-b977-e0dbf1645a88">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C105519-0A6A-4838-BFDC-B34FA4F95570}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1457,4 +1467,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D6E9BA-B988-4E9A-B769-208707F9EA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04543BEE-C836-4B28-93D5-D7BCFD0FE88F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e93c1e37-f8f1-4329-b977-e0dbf1645a88"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>